--- a/aspnet-core/src/Nguyen_Tan_Phat_Project.Web.Host/wwwroot/ExcelTemplate/phieu xuat kho sua.xlsx
+++ b/aspnet-core/src/Nguyen_Tan_Phat_Project.Web.Host/wwwroot/ExcelTemplate/phieu xuat kho sua.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\End_Of_Year\aspnet-core\src\Nguyen_Tan_Phat_Project.Web.Host\wwwroot\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32E19F5-BF10-47A5-A06E-EEF4C261A9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476007BB-94A8-455B-8C3C-27AB581D240A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1404" yWindow="840" windowWidth="23076" windowHeight="12132" xr2:uid="{4DBF00B1-0DBA-4290-9451-AC28FFC0F289}"/>
+    <workbookView xWindow="-27075" yWindow="1965" windowWidth="23070" windowHeight="12135" xr2:uid="{4DBF00B1-0DBA-4290-9451-AC28FFC0F289}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>CÔNG TY CỔ PHẦN UTEN VIỆT - ĐỨC</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>PHIẾU XUẤT KHO</t>
   </si>
@@ -61,13 +58,25 @@
   </si>
   <si>
     <t>Thành tiền</t>
+  </si>
+  <si>
+    <t>Họ tên người nhận hàng:</t>
+  </si>
+  <si>
+    <t>Địa chỉ:</t>
+  </si>
+  <si>
+    <t>Xuất tại kho:</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN UNTEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +93,13 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -161,30 +177,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -217,7 +234,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>360045</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
+      <xdr:rowOff>93345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -570,7 +587,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="D9" sqref="D9:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,143 +597,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8" t="s">
+      <c r="K13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="L13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="M13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A11:M11"/>
+  <mergeCells count="13">
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E6:I6"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:I13"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="D11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/aspnet-core/src/Nguyen_Tan_Phat_Project.Web.Host/wwwroot/ExcelTemplate/phieu xuat kho sua.xlsx
+++ b/aspnet-core/src/Nguyen_Tan_Phat_Project.Web.Host/wwwroot/ExcelTemplate/phieu xuat kho sua.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\End_Of_Year\aspnet-core\src\Nguyen_Tan_Phat_Project.Web.Host\wwwroot\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476007BB-94A8-455B-8C3C-27AB581D240A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF748FEB-E389-4307-A443-8F71B6C9B7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27075" yWindow="1965" windowWidth="23070" windowHeight="12135" xr2:uid="{4DBF00B1-0DBA-4290-9451-AC28FFC0F289}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{4DBF00B1-0DBA-4290-9451-AC28FFC0F289}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,22 +54,22 @@
     <t>Số lượng</t>
   </si>
   <si>
-    <t>Đơn giá</t>
-  </si>
-  <si>
-    <t>Thành tiền</t>
-  </si>
-  <si>
     <t>Họ tên người nhận hàng:</t>
   </si>
   <si>
     <t>Địa chỉ:</t>
   </si>
   <si>
-    <t>Xuất tại kho:</t>
-  </si>
-  <si>
     <t>CÔNG TY CỔ PHẦN UNTEN</t>
+  </si>
+  <si>
+    <t>Vị trí</t>
+  </si>
+  <si>
+    <t>Mã kho</t>
+  </si>
+  <si>
+    <t>Mã chi nhánh:</t>
   </si>
 </sst>
 </file>
@@ -177,12 +177,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -194,15 +211,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7982E4AF-FCD3-4BCD-8669-B60A0D6917A4}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:M11"/>
+      <selection activeCell="D11" sqref="D11:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,162 +604,164 @@
     <col min="10" max="13" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D7" s="2"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="1" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="D10:L10"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="E7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/aspnet-core/src/Nguyen_Tan_Phat_Project.Web.Host/wwwroot/ExcelTemplate/phieu xuat kho sua.xlsx
+++ b/aspnet-core/src/Nguyen_Tan_Phat_Project.Web.Host/wwwroot/ExcelTemplate/phieu xuat kho sua.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\End_Of_Year\aspnet-core\src\Nguyen_Tan_Phat_Project.Web.Host\wwwroot\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF748FEB-E389-4307-A443-8F71B6C9B7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96213394-C1D6-4726-ACAD-35DF0F55DB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{4DBF00B1-0DBA-4290-9451-AC28FFC0F289}"/>
+    <workbookView xWindow="-25575" yWindow="1260" windowWidth="20055" windowHeight="13770" xr2:uid="{4DBF00B1-0DBA-4290-9451-AC28FFC0F289}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -188,6 +188,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -196,21 +208,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,7 +592,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:L11"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,69 +602,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D7" s="2"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -681,11 +678,11 @@
       <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -699,11 +696,11 @@
       <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -723,17 +720,17 @@
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="10" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="3" t="s">
         <v>9</v>
       </c>
@@ -746,6 +743,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="E7:H7"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="D11:L11"/>
@@ -754,11 +756,6 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="E7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
